--- a/Mentoria EBAC/Questionário Âncoras de Carreira.xlsx
+++ b/Mentoria EBAC/Questionário Âncoras de Carreira.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qpnery\OneDrive - PASCHOALOTTO SERVICOS FINANCEIROS LTDA\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qpnery\Repositorios\Pessoal\exercicios-ebac\Mentoria EBAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1152ED-07B9-4B32-906D-960ED7A33D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D7DC45-45E9-4D38-9771-BC24C393472B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{2F587DDF-C379-41A3-8926-FF8939852EC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{2F587DDF-C379-41A3-8926-FF8939852EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionário" sheetId="1" r:id="rId1"/>
@@ -534,11 +534,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410A4A26-EF18-4DC2-9675-6D696919833D}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1DB0C0-D92B-48FA-85F6-7E3878198C57}">
   <dimension ref="B3:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:Q10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1429,38 +1429,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="15.75">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="5" t="s">
@@ -1803,46 +1803,46 @@
       </c>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <f>SUM(C5:C9)/5</f>
         <v>3.6</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16">
         <f>SUM(E5:E9)/5</f>
         <v>2.4</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
         <f>SUM(G5:G9)/5</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
         <f>SUM(I5:I9)/5</f>
         <v>4.2</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16">
         <f>SUM(K5:K9)/5</f>
         <v>1.8</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16">
         <f>SUM(M5:M9)/5</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15">
+      <c r="M10" s="16"/>
+      <c r="N10" s="16">
         <f>SUM(O5:O9)/5</f>
         <v>6</v>
       </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15">
+      <c r="O10" s="16"/>
+      <c r="P10" s="16">
         <f>SUM(Q5:Q9)/5</f>
         <v>5.4</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="9" t="s">
@@ -1918,6 +1918,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="N3:O3"/>
@@ -1926,14 +1934,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
